--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_P_last_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_P_last_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2D5DA5-3269-47F5-A5EC-C39ADCF084AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE13704-68AC-4FA7-8555-ECCA32A4CD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{6AB1760F-8CAC-4A0A-B056-C66FD5CF54B6}"/>
   </bookViews>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.45454545454545453</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -633,16 +633,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.11904761904761904</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>0.16666666666666666</v>
@@ -651,16 +651,16 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>0.19047619047619047</v>
@@ -692,28 +692,28 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -727,22 +727,22 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.38461538461538464</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0.38461538461538464</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -751,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.38461538461538464</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -774,16 +774,16 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>9.4339622641509441E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>9.4339622641509441E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>0.13207547169811321</v>
@@ -792,16 +792,16 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>9.4339622641509441E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>9.4339622641509441E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>9.4339622641509441E-2</v>
@@ -821,16 +821,16 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0.2</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -874,34 +874,34 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -915,16 +915,16 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0.33333333333333331</v>
@@ -933,22 +933,22 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -962,22 +962,22 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1015,34 +1015,34 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>0.23809523809523808</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1056,22 +1056,22 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.21739130434782608</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1150,34 +1150,34 @@
         <v>31</v>
       </c>
       <c r="D16">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>0.19354838709677419</v>
@@ -1255,16 +1255,16 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>0.26315789473684209</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.26315789473684209</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0.31578947368421051</v>
@@ -1273,22 +1273,22 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0.26315789473684209</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1314,16 +1314,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0.17857142857142858</v>
@@ -1378,16 +1378,16 @@
         <v>19</v>
       </c>
       <c r="D22">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.26315789473684209</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>0.31578947368421051</v>
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1617,16 +1617,16 @@
         <v>29</v>
       </c>
       <c r="D29">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.17241379310344829</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <v>0.31034482758620691</v>
@@ -1641,16 +1641,16 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1722,16 +1722,16 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <v>8.9285714285714288E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>8.9285714285714288E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>0.125</v>
@@ -1740,16 +1740,16 @@
         <v>7</v>
       </c>
       <c r="J32">
-        <v>8.9285714285714288E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>8.9285714285714288E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>0.125</v>
@@ -1827,22 +1827,22 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.27777777777777779</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1962,28 +1962,28 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.35714285714285715</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2061,22 +2061,22 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.14285714285714285</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0.14285714285714285</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.15625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>0.15625</v>
@@ -2178,34 +2178,34 @@
         <v>24</v>
       </c>
       <c r="D44">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0.25</v>
@@ -2225,16 +2225,16 @@
         <v>25</v>
       </c>
       <c r="D45">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>0.2</v>
@@ -2243,22 +2243,22 @@
         <v>5</v>
       </c>
       <c r="J45">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2272,22 +2272,22 @@
         <v>21</v>
       </c>
       <c r="D46">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>0.23809523809523808</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2366,28 +2366,28 @@
         <v>48</v>
       </c>
       <c r="D48">
-        <v>0.10416666666666667</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.10416666666666667</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>0.10416666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>0.10416666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48">
         <v>0.16666666666666666</v>
@@ -2413,16 +2413,16 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>9.2592592592592587E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>9.2592592592592587E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>0.1111111111111111</v>
@@ -2466,22 +2466,22 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0.12195121951219512</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.12195121951219512</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>0.14634146341463414</v>
@@ -2507,16 +2507,16 @@
         <v>31</v>
       </c>
       <c r="D51">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>0.16129032258064516</v>
@@ -2525,22 +2525,22 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2554,40 +2554,40 @@
         <v>17</v>
       </c>
       <c r="D52">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
